--- a/C_나라별_실시간_환율_조사/File/한국수출입_및_환율조사.xlsx
+++ b/C_나라별_실시간_환율_조사/File/한국수출입_및_환율조사.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\한경_실습\실습1\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\C_나라별_실시간_환율_조사\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64562CF9-9743-47BD-9CDC-D2544D498C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7366622-5B6F-468D-B1AF-97632448C2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="75" windowWidth="18285" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11280" yWindow="-16410" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="수출입" sheetId="1" r:id="rId1"/>
     <sheet name="유로존" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -233,10 +223,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>말레이지아</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>인도</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -254,6 +240,10 @@
   </si>
   <si>
     <t>환율</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>말레이시아</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -951,7 +941,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -989,10 +981,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1">
@@ -1100,7 +1092,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1">
         <v>13163</v>
@@ -1200,7 +1192,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1">
         <v>6779</v>
@@ -1475,7 +1467,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1">
         <v>2851</v>
@@ -1500,7 +1492,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1">
         <v>2362</v>

--- a/C_나라별_실시간_환율_조사/File/한국수출입_및_환율조사.xlsx
+++ b/C_나라별_실시간_환율_조사/File/한국수출입_및_환율조사.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\C_나라별_실시간_환율_조사\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7366622-5B6F-468D-B1AF-97632448C2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D6DBB4-1B24-4FCF-AFC9-34AAA86835BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="-16410" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="수출입" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,23 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -942,7 +958,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1914,6 +1930,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="I2:I38">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="▲">
+      <formula>NOT(ISERROR(SEARCH("▲",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="▼">
+      <formula>NOT(ISERROR(SEARCH("▼",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
